--- a/artfynd/A 47756-2019.xlsx
+++ b/artfynd/A 47756-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112225129</v>
+        <v>112225084</v>
       </c>
       <c r="B2" t="n">
-        <v>56862</v>
+        <v>56841</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103018</v>
+        <v>103001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Rödvingetrast</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ficedula hypoleuca</t>
+          <t>Turdus iliacus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Pallas, 1764)</t>
+          <t>Linnaeus, 1766</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>828470</v>
+        <v>828456</v>
       </c>
       <c r="R2" t="n">
-        <v>7303660</v>
+        <v>7303657</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -759,12 +759,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -795,10 +795,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112225084</v>
+        <v>112225129</v>
       </c>
       <c r="B3" t="n">
-        <v>56809</v>
+        <v>56894</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -811,21 +811,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103001</v>
+        <v>103018</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödvingetrast</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Ficedula hypoleuca</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Linnaeus, 1766</t>
+          <t>(Pallas, 1764)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>828456</v>
+        <v>828470</v>
       </c>
       <c r="R3" t="n">
-        <v>7303657</v>
+        <v>7303660</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -874,12 +874,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 47756-2019.xlsx
+++ b/artfynd/A 47756-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112225084</v>
+        <v>112225129</v>
       </c>
       <c r="B2" t="n">
-        <v>56841</v>
+        <v>56894</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103001</v>
+        <v>103018</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rödvingetrast</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Ficedula hypoleuca</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Linnaeus, 1766</t>
+          <t>(Pallas, 1764)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>828456</v>
+        <v>828470</v>
       </c>
       <c r="R2" t="n">
-        <v>7303657</v>
+        <v>7303660</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -759,12 +759,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -795,10 +795,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112225129</v>
+        <v>112225084</v>
       </c>
       <c r="B3" t="n">
-        <v>56894</v>
+        <v>56841</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -811,21 +811,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103018</v>
+        <v>103001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Rödvingetrast</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ficedula hypoleuca</t>
+          <t>Turdus iliacus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Pallas, 1764)</t>
+          <t>Linnaeus, 1766</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>828470</v>
+        <v>828456</v>
       </c>
       <c r="R3" t="n">
-        <v>7303660</v>
+        <v>7303657</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -874,12 +874,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="AD3" t="b">
